--- a/Classes/bank/result2.xlsx
+++ b/Classes/bank/result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>type</t>
   </si>
@@ -34,31 +34,40 @@
     <t>К</t>
   </si>
   <si>
-    <t>17.10.2023</t>
-  </si>
-  <si>
-    <t>19.09.2023</t>
-  </si>
-  <si>
-    <t>16.08.2023</t>
-  </si>
-  <si>
-    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1722901001051//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54//</t>
-  </si>
-  <si>
-    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1696754127486//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54// р/с 30233810642000600001</t>
-  </si>
-  <si>
-    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1676506924005//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54//</t>
-  </si>
-  <si>
-    <t>ЗА 16/10/2023;КАНДАЛОВ ВЛАДИМИР АНАТОЛЬЕВИЧ;Платёж по Договору беспроцентного займа от 15.08.2023</t>
-  </si>
-  <si>
-    <t>ЗА 18/09/2023;КАНДАЛОВ ВЛАДИМИР АНАТОЛЬЕВИЧ;Платёж по Договору беспроцентного займа от 15.08.2023</t>
-  </si>
-  <si>
-    <t>ЗА 15/08/2023;КАНДАЛОВ ВЛАДИМИР АНАТОЛЬЕВИЧ;Платёж по Договору беспроцентного займа от 15.08.2023</t>
+    <t>13.05.2022</t>
+  </si>
+  <si>
+    <t>19.04.2022</t>
+  </si>
+  <si>
+    <t>05.04.2022</t>
+  </si>
+  <si>
+    <t>01.04.2022</t>
+  </si>
+  <si>
+    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1397248217222//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54// р/с 30233810642000600001</t>
+  </si>
+  <si>
+    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1383680961845//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54//</t>
+  </si>
+  <si>
+    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1374273115406//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54//</t>
+  </si>
+  <si>
+    <t>ПАО СБЕРБАНК//Кандалов Владимир Анатольевич//1372207113464//350072,РОССИЯ,КРАСНОДАРСКИЙ КРАЙ,Г КРАСНОДАР,УЛ РОСТОВСКАЯ,Д 30 КВ 54//</t>
+  </si>
+  <si>
+    <t>ЗА 12/05/2022;Кандалов Владимир Анатольевич;Платеж по Договору беспроцентного займа от 31.03.2022</t>
+  </si>
+  <si>
+    <t>ЗА 18/04/2022;Кандалов Владимир Анатольевич;Платеж по Договору беспроцентного займа от 31.03.2022</t>
+  </si>
+  <si>
+    <t>ЗА 04/04/2022;Кандалов Владимир Анатольевич;Платеж по Договору беспроцентного займа от 31.03.2022</t>
+  </si>
+  <si>
+    <t>ЗА 31/03/2022;Кандалов Владимир Анатольевич;Платеж по Договору беспроцентного займа от 31.03.2022</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +450,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -450,18 +459,18 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -470,18 +479,18 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>46000</v>
+        <v>27000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -490,13 +499,33 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>36000</v>
+        <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>34000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
